--- a/datasets/global-player-stats.xlsx
+++ b/datasets/global-player-stats.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T360"/>
+  <dimension ref="A1:U360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -533,9 +538,14 @@
           <t>is_weekend</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -597,9 +607,14 @@
       <c r="T2" t="b">
         <v>0</v>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -661,9 +676,14 @@
       <c r="T3" t="b">
         <v>1</v>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -725,9 +745,14 @@
       <c r="T4" t="b">
         <v>1</v>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -789,9 +814,14 @@
       <c r="T5" t="b">
         <v>0</v>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -853,9 +883,14 @@
       <c r="T6" t="b">
         <v>0</v>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -911,9 +946,10 @@
       <c r="T7" t="b">
         <v>0</v>
       </c>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -975,9 +1011,14 @@
       <c r="T8" t="b">
         <v>0</v>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1039,9 +1080,14 @@
       <c r="T9" t="b">
         <v>0</v>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1103,9 +1149,14 @@
       <c r="T10" t="b">
         <v>1</v>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1167,9 +1218,14 @@
       <c r="T11" t="b">
         <v>1</v>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -1231,9 +1287,14 @@
       <c r="T12" t="b">
         <v>0</v>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -1295,9 +1356,14 @@
       <c r="T13" t="b">
         <v>0</v>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -1359,9 +1425,14 @@
       <c r="T14" t="b">
         <v>0</v>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -1423,9 +1494,14 @@
       <c r="T15" t="b">
         <v>0</v>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -1487,9 +1563,14 @@
       <c r="T16" t="b">
         <v>0</v>
       </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -1551,9 +1632,14 @@
       <c r="T17" t="b">
         <v>1</v>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -1615,9 +1701,14 @@
       <c r="T18" t="b">
         <v>1</v>
       </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -1679,9 +1770,14 @@
       <c r="T19" t="b">
         <v>0</v>
       </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -1743,9 +1839,14 @@
       <c r="T20" t="b">
         <v>0</v>
       </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -1807,9 +1908,14 @@
       <c r="T21" t="b">
         <v>0</v>
       </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -1871,9 +1977,14 @@
       <c r="T22" t="b">
         <v>0</v>
       </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -1935,9 +2046,14 @@
       <c r="T23" t="b">
         <v>0</v>
       </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -1999,9 +2115,14 @@
       <c r="T24" t="b">
         <v>1</v>
       </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -2063,9 +2184,14 @@
       <c r="T25" t="b">
         <v>1</v>
       </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -2127,9 +2253,14 @@
       <c r="T26" t="b">
         <v>0</v>
       </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -2191,9 +2322,14 @@
       <c r="T27" t="b">
         <v>0</v>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -2255,9 +2391,14 @@
       <c r="T28" t="b">
         <v>0</v>
       </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -2319,9 +2460,14 @@
       <c r="T29" t="b">
         <v>0</v>
       </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -2383,9 +2529,14 @@
       <c r="T30" t="b">
         <v>0</v>
       </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -2447,9 +2598,14 @@
       <c r="T31" t="b">
         <v>1</v>
       </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -2511,9 +2667,14 @@
       <c r="T32" t="b">
         <v>1</v>
       </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -2575,9 +2736,14 @@
       <c r="T33" t="b">
         <v>0</v>
       </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -2639,9 +2805,14 @@
       <c r="T34" t="b">
         <v>0</v>
       </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -2703,9 +2874,14 @@
       <c r="T35" t="b">
         <v>0</v>
       </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -2767,9 +2943,14 @@
       <c r="T36" t="b">
         <v>0</v>
       </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -2831,9 +3012,14 @@
       <c r="T37" t="b">
         <v>0</v>
       </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -2895,9 +3081,14 @@
       <c r="T38" t="b">
         <v>1</v>
       </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -2959,9 +3150,14 @@
       <c r="T39" t="b">
         <v>1</v>
       </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -3023,9 +3219,14 @@
       <c r="T40" t="b">
         <v>0</v>
       </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -3087,9 +3288,14 @@
       <c r="T41" t="b">
         <v>0</v>
       </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
@@ -3151,9 +3357,14 @@
       <c r="T42" t="b">
         <v>0</v>
       </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
@@ -3215,9 +3426,14 @@
       <c r="T43" t="b">
         <v>0</v>
       </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
@@ -3279,9 +3495,14 @@
       <c r="T44" t="b">
         <v>0</v>
       </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
@@ -3343,9 +3564,14 @@
       <c r="T45" t="b">
         <v>1</v>
       </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
@@ -3407,9 +3633,14 @@
       <c r="T46" t="b">
         <v>1</v>
       </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
@@ -3471,9 +3702,14 @@
       <c r="T47" t="b">
         <v>0</v>
       </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
@@ -3535,9 +3771,14 @@
       <c r="T48" t="b">
         <v>0</v>
       </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
@@ -3599,9 +3840,14 @@
       <c r="T49" t="b">
         <v>0</v>
       </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
@@ -3663,9 +3909,14 @@
       <c r="T50" t="b">
         <v>0</v>
       </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
@@ -3727,9 +3978,14 @@
       <c r="T51" t="b">
         <v>0</v>
       </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
@@ -3791,9 +4047,14 @@
       <c r="T52" t="b">
         <v>1</v>
       </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
@@ -3855,9 +4116,14 @@
       <c r="T53" t="b">
         <v>1</v>
       </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
@@ -3919,9 +4185,14 @@
       <c r="T54" t="b">
         <v>0</v>
       </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
@@ -3983,9 +4254,14 @@
       <c r="T55" t="b">
         <v>0</v>
       </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
@@ -4047,9 +4323,14 @@
       <c r="T56" t="b">
         <v>0</v>
       </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
@@ -4111,9 +4392,14 @@
       <c r="T57" t="b">
         <v>0</v>
       </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
@@ -4175,9 +4461,14 @@
       <c r="T58" t="b">
         <v>0</v>
       </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
@@ -4239,9 +4530,14 @@
       <c r="T59" t="b">
         <v>1</v>
       </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
@@ -4303,9 +4599,14 @@
       <c r="T60" t="b">
         <v>1</v>
       </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
@@ -4367,9 +4668,14 @@
       <c r="T61" t="b">
         <v>0</v>
       </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
@@ -4431,9 +4737,14 @@
       <c r="T62" t="b">
         <v>0</v>
       </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
@@ -4495,9 +4806,14 @@
       <c r="T63" t="b">
         <v>0</v>
       </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
@@ -4559,9 +4875,14 @@
       <c r="T64" t="b">
         <v>0</v>
       </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
@@ -4623,9 +4944,14 @@
       <c r="T65" t="b">
         <v>0</v>
       </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
@@ -4687,9 +5013,14 @@
       <c r="T66" t="b">
         <v>1</v>
       </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
@@ -4751,9 +5082,14 @@
       <c r="T67" t="b">
         <v>1</v>
       </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
@@ -4815,9 +5151,14 @@
       <c r="T68" t="b">
         <v>0</v>
       </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
@@ -4879,9 +5220,14 @@
       <c r="T69" t="b">
         <v>0</v>
       </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
@@ -4943,9 +5289,14 @@
       <c r="T70" t="b">
         <v>0</v>
       </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
@@ -5007,9 +5358,14 @@
       <c r="T71" t="b">
         <v>0</v>
       </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
@@ -5071,9 +5427,14 @@
       <c r="T72" t="b">
         <v>0</v>
       </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
@@ -5135,9 +5496,14 @@
       <c r="T73" t="b">
         <v>1</v>
       </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>VB</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
@@ -5199,9 +5565,14 @@
       <c r="T74" t="b">
         <v>1</v>
       </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
@@ -5263,9 +5634,14 @@
       <c r="T75" t="b">
         <v>0</v>
       </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>PRP$</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
@@ -5327,9 +5703,14 @@
       <c r="T76" t="b">
         <v>0</v>
       </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
@@ -5391,9 +5772,14 @@
       <c r="T77" t="b">
         <v>0</v>
       </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
@@ -5455,9 +5841,14 @@
       <c r="T78" t="b">
         <v>0</v>
       </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
@@ -5519,9 +5910,14 @@
       <c r="T79" t="b">
         <v>0</v>
       </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
@@ -5583,9 +5979,14 @@
       <c r="T80" t="b">
         <v>1</v>
       </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
@@ -5647,9 +6048,14 @@
       <c r="T81" t="b">
         <v>1</v>
       </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
@@ -5711,9 +6117,14 @@
       <c r="T82" t="b">
         <v>0</v>
       </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
@@ -5775,9 +6186,14 @@
       <c r="T83" t="b">
         <v>0</v>
       </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
@@ -5839,9 +6255,14 @@
       <c r="T84" t="b">
         <v>0</v>
       </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
@@ -5903,9 +6324,14 @@
       <c r="T85" t="b">
         <v>0</v>
       </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
@@ -5967,9 +6393,14 @@
       <c r="T86" t="b">
         <v>0</v>
       </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
@@ -6031,9 +6462,14 @@
       <c r="T87" t="b">
         <v>1</v>
       </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
@@ -6095,9 +6531,14 @@
       <c r="T88" t="b">
         <v>1</v>
       </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>JJR</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
@@ -6159,9 +6600,14 @@
       <c r="T89" t="b">
         <v>0</v>
       </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
@@ -6223,9 +6669,14 @@
       <c r="T90" t="b">
         <v>0</v>
       </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
@@ -6287,9 +6738,14 @@
       <c r="T91" t="b">
         <v>0</v>
       </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
@@ -6351,9 +6807,14 @@
       <c r="T92" t="b">
         <v>0</v>
       </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
@@ -6415,9 +6876,14 @@
       <c r="T93" t="b">
         <v>0</v>
       </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
@@ -6479,9 +6945,14 @@
       <c r="T94" t="b">
         <v>1</v>
       </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
@@ -6543,9 +7014,14 @@
       <c r="T95" t="b">
         <v>1</v>
       </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
@@ -6607,9 +7083,14 @@
       <c r="T96" t="b">
         <v>0</v>
       </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
@@ -6671,9 +7152,14 @@
       <c r="T97" t="b">
         <v>0</v>
       </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
@@ -6735,9 +7221,14 @@
       <c r="T98" t="b">
         <v>0</v>
       </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
@@ -6799,9 +7290,14 @@
       <c r="T99" t="b">
         <v>0</v>
       </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
@@ -6863,9 +7359,14 @@
       <c r="T100" t="b">
         <v>0</v>
       </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
@@ -6927,9 +7428,14 @@
       <c r="T101" t="b">
         <v>1</v>
       </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
@@ -6991,9 +7497,14 @@
       <c r="T102" t="b">
         <v>1</v>
       </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
@@ -7055,9 +7566,14 @@
       <c r="T103" t="b">
         <v>0</v>
       </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
@@ -7119,9 +7635,14 @@
       <c r="T104" t="b">
         <v>0</v>
       </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
@@ -7183,9 +7704,14 @@
       <c r="T105" t="b">
         <v>0</v>
       </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
@@ -7247,9 +7773,14 @@
       <c r="T106" t="b">
         <v>0</v>
       </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
@@ -7311,9 +7842,14 @@
       <c r="T107" t="b">
         <v>0</v>
       </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
@@ -7375,9 +7911,14 @@
       <c r="T108" t="b">
         <v>1</v>
       </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
@@ -7439,9 +7980,14 @@
       <c r="T109" t="b">
         <v>1</v>
       </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
@@ -7503,9 +8049,14 @@
       <c r="T110" t="b">
         <v>0</v>
       </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
@@ -7567,9 +8118,14 @@
       <c r="T111" t="b">
         <v>0</v>
       </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
@@ -7631,9 +8187,14 @@
       <c r="T112" t="b">
         <v>0</v>
       </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>VBN</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
@@ -7695,9 +8256,14 @@
       <c r="T113" t="b">
         <v>0</v>
       </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
@@ -7753,9 +8319,10 @@
       <c r="T114" t="b">
         <v>0</v>
       </c>
+      <c r="U114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
@@ -7817,9 +8384,14 @@
       <c r="T115" t="b">
         <v>1</v>
       </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
@@ -7881,9 +8453,14 @@
       <c r="T116" t="b">
         <v>1</v>
       </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
@@ -7945,9 +8522,14 @@
       <c r="T117" t="b">
         <v>0</v>
       </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
@@ -8009,9 +8591,14 @@
       <c r="T118" t="b">
         <v>0</v>
       </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
@@ -8073,9 +8660,14 @@
       <c r="T119" t="b">
         <v>0</v>
       </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
@@ -8137,9 +8729,14 @@
       <c r="T120" t="b">
         <v>0</v>
       </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
@@ -8201,9 +8798,14 @@
       <c r="T121" t="b">
         <v>0</v>
       </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
@@ -8265,9 +8867,14 @@
       <c r="T122" t="b">
         <v>1</v>
       </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
@@ -8329,9 +8936,14 @@
       <c r="T123" t="b">
         <v>1</v>
       </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
@@ -8393,9 +9005,14 @@
       <c r="T124" t="b">
         <v>0</v>
       </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
@@ -8457,9 +9074,14 @@
       <c r="T125" t="b">
         <v>0</v>
       </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
@@ -8521,9 +9143,14 @@
       <c r="T126" t="b">
         <v>0</v>
       </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
@@ -8585,9 +9212,14 @@
       <c r="T127" t="b">
         <v>0</v>
       </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
@@ -8649,9 +9281,14 @@
       <c r="T128" t="b">
         <v>0</v>
       </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
@@ -8713,9 +9350,14 @@
       <c r="T129" t="b">
         <v>1</v>
       </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
@@ -8777,9 +9419,14 @@
       <c r="T130" t="b">
         <v>1</v>
       </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
@@ -8841,9 +9488,14 @@
       <c r="T131" t="b">
         <v>0</v>
       </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
@@ -8905,9 +9557,14 @@
       <c r="T132" t="b">
         <v>0</v>
       </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>VBG</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
@@ -8969,9 +9626,14 @@
       <c r="T133" t="b">
         <v>0</v>
       </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
@@ -9033,9 +9695,14 @@
       <c r="T134" t="b">
         <v>0</v>
       </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
@@ -9097,9 +9764,14 @@
       <c r="T135" t="b">
         <v>0</v>
       </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
@@ -9161,9 +9833,14 @@
       <c r="T136" t="b">
         <v>1</v>
       </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
@@ -9225,9 +9902,14 @@
       <c r="T137" t="b">
         <v>1</v>
       </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
@@ -9289,9 +9971,14 @@
       <c r="T138" t="b">
         <v>0</v>
       </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
@@ -9353,9 +10040,14 @@
       <c r="T139" t="b">
         <v>0</v>
       </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
@@ -9417,9 +10109,14 @@
       <c r="T140" t="b">
         <v>0</v>
       </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
@@ -9481,9 +10178,14 @@
       <c r="T141" t="b">
         <v>0</v>
       </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
@@ -9545,9 +10247,14 @@
       <c r="T142" t="b">
         <v>0</v>
       </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
@@ -9609,9 +10316,14 @@
       <c r="T143" t="b">
         <v>1</v>
       </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
@@ -9673,9 +10385,14 @@
       <c r="T144" t="b">
         <v>1</v>
       </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
@@ -9737,9 +10454,14 @@
       <c r="T145" t="b">
         <v>0</v>
       </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
@@ -9801,9 +10523,14 @@
       <c r="T146" t="b">
         <v>0</v>
       </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
@@ -9865,9 +10592,14 @@
       <c r="T147" t="b">
         <v>0</v>
       </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
@@ -9929,9 +10661,14 @@
       <c r="T148" t="b">
         <v>0</v>
       </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
@@ -9993,9 +10730,14 @@
       <c r="T149" t="b">
         <v>0</v>
       </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
@@ -10057,9 +10799,14 @@
       <c r="T150" t="b">
         <v>1</v>
       </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
@@ -10121,9 +10868,14 @@
       <c r="T151" t="b">
         <v>1</v>
       </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
@@ -10185,9 +10937,14 @@
       <c r="T152" t="b">
         <v>0</v>
       </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
@@ -10249,9 +11006,14 @@
       <c r="T153" t="b">
         <v>0</v>
       </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
@@ -10313,9 +11075,14 @@
       <c r="T154" t="b">
         <v>0</v>
       </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
@@ -10377,9 +11144,14 @@
       <c r="T155" t="b">
         <v>0</v>
       </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
@@ -10441,9 +11213,14 @@
       <c r="T156" t="b">
         <v>0</v>
       </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
@@ -10505,9 +11282,14 @@
       <c r="T157" t="b">
         <v>1</v>
       </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
@@ -10569,9 +11351,14 @@
       <c r="T158" t="b">
         <v>1</v>
       </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
@@ -10633,9 +11420,14 @@
       <c r="T159" t="b">
         <v>0</v>
       </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
@@ -10697,9 +11489,14 @@
       <c r="T160" t="b">
         <v>0</v>
       </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
@@ -10761,9 +11558,14 @@
       <c r="T161" t="b">
         <v>0</v>
       </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
@@ -10825,9 +11627,14 @@
       <c r="T162" t="b">
         <v>0</v>
       </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
@@ -10889,9 +11696,14 @@
       <c r="T163" t="b">
         <v>0</v>
       </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
@@ -10953,9 +11765,14 @@
       <c r="T164" t="b">
         <v>1</v>
       </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
@@ -11017,9 +11834,14 @@
       <c r="T165" t="b">
         <v>1</v>
       </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
@@ -11081,9 +11903,14 @@
       <c r="T166" t="b">
         <v>0</v>
       </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
@@ -11145,9 +11972,14 @@
       <c r="T167" t="b">
         <v>0</v>
       </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
@@ -11209,9 +12041,14 @@
       <c r="T168" t="b">
         <v>0</v>
       </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
@@ -11273,9 +12110,14 @@
       <c r="T169" t="b">
         <v>0</v>
       </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
@@ -11337,9 +12179,14 @@
       <c r="T170" t="b">
         <v>0</v>
       </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
@@ -11401,9 +12248,14 @@
       <c r="T171" t="b">
         <v>1</v>
       </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
@@ -11465,9 +12317,14 @@
       <c r="T172" t="b">
         <v>1</v>
       </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
@@ -11529,9 +12386,14 @@
       <c r="T173" t="b">
         <v>0</v>
       </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
@@ -11593,9 +12455,14 @@
       <c r="T174" t="b">
         <v>0</v>
       </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
@@ -11657,9 +12524,14 @@
       <c r="T175" t="b">
         <v>0</v>
       </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
@@ -11721,9 +12593,14 @@
       <c r="T176" t="b">
         <v>0</v>
       </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
@@ -11785,9 +12662,14 @@
       <c r="T177" t="b">
         <v>0</v>
       </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
@@ -11849,9 +12731,14 @@
       <c r="T178" t="b">
         <v>1</v>
       </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
@@ -11913,9 +12800,14 @@
       <c r="T179" t="b">
         <v>1</v>
       </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
@@ -11977,9 +12869,14 @@
       <c r="T180" t="b">
         <v>0</v>
       </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
@@ -12041,9 +12938,14 @@
       <c r="T181" t="b">
         <v>0</v>
       </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
@@ -12105,9 +13007,14 @@
       <c r="T182" t="b">
         <v>0</v>
       </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
@@ -12169,9 +13076,14 @@
       <c r="T183" t="b">
         <v>0</v>
       </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
@@ -12233,9 +13145,14 @@
       <c r="T184" t="b">
         <v>0</v>
       </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="A185" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
@@ -12297,9 +13214,14 @@
       <c r="T185" t="b">
         <v>1</v>
       </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="A186" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
@@ -12361,9 +13283,14 @@
       <c r="T186" t="b">
         <v>1</v>
       </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="A187" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
@@ -12425,9 +13352,14 @@
       <c r="T187" t="b">
         <v>0</v>
       </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="A188" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
@@ -12489,9 +13421,14 @@
       <c r="T188" t="b">
         <v>0</v>
       </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="A189" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
@@ -12553,9 +13490,14 @@
       <c r="T189" t="b">
         <v>0</v>
       </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="A190" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
@@ -12617,9 +13559,14 @@
       <c r="T190" t="b">
         <v>0</v>
       </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="A191" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
@@ -12681,9 +13628,14 @@
       <c r="T191" t="b">
         <v>0</v>
       </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="A192" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
@@ -12745,9 +13697,14 @@
       <c r="T192" t="b">
         <v>1</v>
       </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="A193" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
@@ -12809,9 +13766,14 @@
       <c r="T193" t="b">
         <v>1</v>
       </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="A194" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
@@ -12873,9 +13835,14 @@
       <c r="T194" t="b">
         <v>0</v>
       </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
+      <c r="A195" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
@@ -12937,9 +13904,14 @@
       <c r="T195" t="b">
         <v>0</v>
       </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
+      <c r="A196" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
@@ -13001,9 +13973,14 @@
       <c r="T196" t="b">
         <v>0</v>
       </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="A197" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
@@ -13065,9 +14042,14 @@
       <c r="T197" t="b">
         <v>0</v>
       </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="A198" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
@@ -13129,9 +14111,14 @@
       <c r="T198" t="b">
         <v>0</v>
       </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
+      <c r="A199" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
@@ -13193,9 +14180,14 @@
       <c r="T199" t="b">
         <v>1</v>
       </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="A200" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
@@ -13257,9 +14249,14 @@
       <c r="T200" t="b">
         <v>1</v>
       </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="A201" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
@@ -13321,9 +14318,14 @@
       <c r="T201" t="b">
         <v>0</v>
       </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
+      <c r="A202" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
@@ -13385,9 +14387,14 @@
       <c r="T202" t="b">
         <v>0</v>
       </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="A203" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
@@ -13449,9 +14456,14 @@
       <c r="T203" t="b">
         <v>0</v>
       </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
+      <c r="A204" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
@@ -13513,9 +14525,14 @@
       <c r="T204" t="b">
         <v>0</v>
       </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
+      <c r="A205" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
@@ -13577,9 +14594,14 @@
       <c r="T205" t="b">
         <v>0</v>
       </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="A206" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="n">
@@ -13641,9 +14663,14 @@
       <c r="T206" t="b">
         <v>1</v>
       </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="A207" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="n">
@@ -13705,9 +14732,14 @@
       <c r="T207" t="b">
         <v>1</v>
       </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
+      <c r="A208" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="n">
@@ -13769,9 +14801,14 @@
       <c r="T208" t="b">
         <v>0</v>
       </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
+      <c r="A209" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="n">
@@ -13833,9 +14870,14 @@
       <c r="T209" t="b">
         <v>0</v>
       </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
+      <c r="A210" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="n">
@@ -13897,9 +14939,14 @@
       <c r="T210" t="b">
         <v>0</v>
       </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
+      <c r="A211" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="n">
@@ -13961,9 +15008,14 @@
       <c r="T211" t="b">
         <v>0</v>
       </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n">
+      <c r="A212" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="n">
@@ -14025,9 +15077,14 @@
       <c r="T212" t="b">
         <v>0</v>
       </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n">
+      <c r="A213" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="n">
@@ -14089,9 +15146,14 @@
       <c r="T213" t="b">
         <v>1</v>
       </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="n">
+      <c r="A214" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="n">
@@ -14153,9 +15215,14 @@
       <c r="T214" t="b">
         <v>1</v>
       </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n">
+      <c r="A215" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="n">
@@ -14217,9 +15284,14 @@
       <c r="T215" t="b">
         <v>0</v>
       </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n">
+      <c r="A216" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="n">
@@ -14281,9 +15353,14 @@
       <c r="T216" t="b">
         <v>0</v>
       </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="n">
+      <c r="A217" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="n">
@@ -14345,9 +15422,14 @@
       <c r="T217" t="b">
         <v>0</v>
       </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>VBG</t>
+        </is>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n">
+      <c r="A218" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="n">
@@ -14409,9 +15491,14 @@
       <c r="T218" t="b">
         <v>0</v>
       </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="n">
+      <c r="A219" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="n">
@@ -14473,9 +15560,14 @@
       <c r="T219" t="b">
         <v>0</v>
       </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="n">
+      <c r="A220" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="n">
@@ -14537,9 +15629,14 @@
       <c r="T220" t="b">
         <v>1</v>
       </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="n">
+      <c r="A221" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="n">
@@ -14601,9 +15698,14 @@
       <c r="T221" t="b">
         <v>1</v>
       </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="n">
+      <c r="A222" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="n">
@@ -14665,9 +15767,14 @@
       <c r="T222" t="b">
         <v>0</v>
       </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="n">
+      <c r="A223" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="n">
@@ -14729,9 +15836,14 @@
       <c r="T223" t="b">
         <v>0</v>
       </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="n">
+      <c r="A224" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="n">
@@ -14793,9 +15905,14 @@
       <c r="T224" t="b">
         <v>0</v>
       </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="n">
+      <c r="A225" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="n">
@@ -14857,9 +15974,14 @@
       <c r="T225" t="b">
         <v>0</v>
       </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="n">
+      <c r="A226" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="n">
@@ -14921,9 +16043,14 @@
       <c r="T226" t="b">
         <v>0</v>
       </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="n">
+      <c r="A227" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="n">
@@ -14985,9 +16112,14 @@
       <c r="T227" t="b">
         <v>1</v>
       </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="n">
+      <c r="A228" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="n">
@@ -15049,9 +16181,14 @@
       <c r="T228" t="b">
         <v>1</v>
       </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="n">
+      <c r="A229" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="n">
@@ -15113,9 +16250,14 @@
       <c r="T229" t="b">
         <v>0</v>
       </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="n">
+      <c r="A230" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="n">
@@ -15177,9 +16319,14 @@
       <c r="T230" t="b">
         <v>0</v>
       </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="n">
+      <c r="A231" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="n">
@@ -15241,9 +16388,14 @@
       <c r="T231" t="b">
         <v>0</v>
       </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="n">
+      <c r="A232" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="n">
@@ -15305,9 +16457,14 @@
       <c r="T232" t="b">
         <v>0</v>
       </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="n">
+      <c r="A233" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="n">
@@ -15369,9 +16526,14 @@
       <c r="T233" t="b">
         <v>0</v>
       </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="n">
+      <c r="A234" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="n">
@@ -15433,9 +16595,14 @@
       <c r="T234" t="b">
         <v>1</v>
       </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="n">
+      <c r="A235" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="n">
@@ -15497,9 +16664,14 @@
       <c r="T235" t="b">
         <v>1</v>
       </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="n">
+      <c r="A236" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="n">
@@ -15561,9 +16733,14 @@
       <c r="T236" t="b">
         <v>0</v>
       </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="n">
+      <c r="A237" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="n">
@@ -15625,9 +16802,14 @@
       <c r="T237" t="b">
         <v>0</v>
       </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="n">
+      <c r="A238" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="n">
@@ -15689,9 +16871,14 @@
       <c r="T238" t="b">
         <v>0</v>
       </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="n">
+      <c r="A239" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="n">
@@ -15753,9 +16940,14 @@
       <c r="T239" t="b">
         <v>0</v>
       </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>NNS</t>
+        </is>
+      </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="n">
+      <c r="A240" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="n">
@@ -15817,9 +17009,14 @@
       <c r="T240" t="b">
         <v>0</v>
       </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="n">
+      <c r="A241" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="n">
@@ -15881,9 +17078,14 @@
       <c r="T241" t="b">
         <v>1</v>
       </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="n">
+      <c r="A242" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="n">
@@ -15945,9 +17147,14 @@
       <c r="T242" t="b">
         <v>1</v>
       </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="n">
+      <c r="A243" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="n">
@@ -16009,9 +17216,14 @@
       <c r="T243" t="b">
         <v>0</v>
       </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="n">
+      <c r="A244" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="n">
@@ -16073,9 +17285,14 @@
       <c r="T244" t="b">
         <v>0</v>
       </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="n">
+      <c r="A245" t="n">
         <v>243</v>
       </c>
       <c r="B245" t="n">
@@ -16137,9 +17354,14 @@
       <c r="T245" t="b">
         <v>0</v>
       </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="n">
+      <c r="A246" t="n">
         <v>244</v>
       </c>
       <c r="B246" t="n">
@@ -16201,9 +17423,14 @@
       <c r="T246" t="b">
         <v>0</v>
       </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="n">
+      <c r="A247" t="n">
         <v>245</v>
       </c>
       <c r="B247" t="n">
@@ -16265,9 +17492,14 @@
       <c r="T247" t="b">
         <v>0</v>
       </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="n">
+      <c r="A248" t="n">
         <v>246</v>
       </c>
       <c r="B248" t="n">
@@ -16329,9 +17561,14 @@
       <c r="T248" t="b">
         <v>1</v>
       </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="n">
+      <c r="A249" t="n">
         <v>247</v>
       </c>
       <c r="B249" t="n">
@@ -16393,9 +17630,14 @@
       <c r="T249" t="b">
         <v>1</v>
       </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="n">
+      <c r="A250" t="n">
         <v>248</v>
       </c>
       <c r="B250" t="n">
@@ -16457,9 +17699,14 @@
       <c r="T250" t="b">
         <v>0</v>
       </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="n">
+      <c r="A251" t="n">
         <v>249</v>
       </c>
       <c r="B251" t="n">
@@ -16521,9 +17768,14 @@
       <c r="T251" t="b">
         <v>0</v>
       </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="n">
+      <c r="A252" t="n">
         <v>250</v>
       </c>
       <c r="B252" t="n">
@@ -16585,9 +17837,14 @@
       <c r="T252" t="b">
         <v>0</v>
       </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="n">
+      <c r="A253" t="n">
         <v>251</v>
       </c>
       <c r="B253" t="n">
@@ -16649,9 +17906,14 @@
       <c r="T253" t="b">
         <v>0</v>
       </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="n">
+      <c r="A254" t="n">
         <v>252</v>
       </c>
       <c r="B254" t="n">
@@ -16713,9 +17975,14 @@
       <c r="T254" t="b">
         <v>0</v>
       </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="n">
+      <c r="A255" t="n">
         <v>253</v>
       </c>
       <c r="B255" t="n">
@@ -16777,9 +18044,14 @@
       <c r="T255" t="b">
         <v>1</v>
       </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="n">
+      <c r="A256" t="n">
         <v>254</v>
       </c>
       <c r="B256" t="n">
@@ -16841,9 +18113,14 @@
       <c r="T256" t="b">
         <v>1</v>
       </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="n">
+      <c r="A257" t="n">
         <v>255</v>
       </c>
       <c r="B257" t="n">
@@ -16905,9 +18182,14 @@
       <c r="T257" t="b">
         <v>0</v>
       </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="n">
+      <c r="A258" t="n">
         <v>256</v>
       </c>
       <c r="B258" t="n">
@@ -16969,9 +18251,14 @@
       <c r="T258" t="b">
         <v>0</v>
       </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="n">
+      <c r="A259" t="n">
         <v>257</v>
       </c>
       <c r="B259" t="n">
@@ -17033,9 +18320,14 @@
       <c r="T259" t="b">
         <v>0</v>
       </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="n">
+      <c r="A260" t="n">
         <v>258</v>
       </c>
       <c r="B260" t="n">
@@ -17097,9 +18389,14 @@
       <c r="T260" t="b">
         <v>0</v>
       </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="n">
+      <c r="A261" t="n">
         <v>259</v>
       </c>
       <c r="B261" t="n">
@@ -17161,9 +18458,14 @@
       <c r="T261" t="b">
         <v>0</v>
       </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="n">
+      <c r="A262" t="n">
         <v>260</v>
       </c>
       <c r="B262" t="n">
@@ -17225,9 +18527,14 @@
       <c r="T262" t="b">
         <v>1</v>
       </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="n">
+      <c r="A263" t="n">
         <v>261</v>
       </c>
       <c r="B263" t="n">
@@ -17289,9 +18596,14 @@
       <c r="T263" t="b">
         <v>1</v>
       </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="n">
+      <c r="A264" t="n">
         <v>262</v>
       </c>
       <c r="B264" t="n">
@@ -17353,9 +18665,14 @@
       <c r="T264" t="b">
         <v>0</v>
       </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="n">
+      <c r="A265" t="n">
         <v>263</v>
       </c>
       <c r="B265" t="n">
@@ -17417,9 +18734,14 @@
       <c r="T265" t="b">
         <v>0</v>
       </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="n">
+      <c r="A266" t="n">
         <v>264</v>
       </c>
       <c r="B266" t="n">
@@ -17481,9 +18803,14 @@
       <c r="T266" t="b">
         <v>0</v>
       </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="n">
+      <c r="A267" t="n">
         <v>265</v>
       </c>
       <c r="B267" t="n">
@@ -17545,9 +18872,14 @@
       <c r="T267" t="b">
         <v>0</v>
       </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="n">
+      <c r="A268" t="n">
         <v>266</v>
       </c>
       <c r="B268" t="n">
@@ -17609,9 +18941,14 @@
       <c r="T268" t="b">
         <v>0</v>
       </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="n">
+      <c r="A269" t="n">
         <v>267</v>
       </c>
       <c r="B269" t="n">
@@ -17673,9 +19010,14 @@
       <c r="T269" t="b">
         <v>1</v>
       </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>VB</t>
+        </is>
+      </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="n">
+      <c r="A270" t="n">
         <v>268</v>
       </c>
       <c r="B270" t="n">
@@ -17737,9 +19079,14 @@
       <c r="T270" t="b">
         <v>1</v>
       </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="n">
+      <c r="A271" t="n">
         <v>269</v>
       </c>
       <c r="B271" t="n">
@@ -17801,9 +19148,14 @@
       <c r="T271" t="b">
         <v>0</v>
       </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>VBG</t>
+        </is>
+      </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="n">
+      <c r="A272" t="n">
         <v>270</v>
       </c>
       <c r="B272" t="n">
@@ -17865,9 +19217,14 @@
       <c r="T272" t="b">
         <v>0</v>
       </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="n">
+      <c r="A273" t="n">
         <v>271</v>
       </c>
       <c r="B273" t="n">
@@ -17923,9 +19280,10 @@
       <c r="T273" t="b">
         <v>0</v>
       </c>
+      <c r="U273" t="inlineStr"/>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="n">
+      <c r="A274" t="n">
         <v>272</v>
       </c>
       <c r="B274" t="n">
@@ -17987,9 +19345,14 @@
       <c r="T274" t="b">
         <v>0</v>
       </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="n">
+      <c r="A275" t="n">
         <v>273</v>
       </c>
       <c r="B275" t="n">
@@ -18051,9 +19414,14 @@
       <c r="T275" t="b">
         <v>0</v>
       </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="n">
+      <c r="A276" t="n">
         <v>274</v>
       </c>
       <c r="B276" t="n">
@@ -18115,9 +19483,14 @@
       <c r="T276" t="b">
         <v>1</v>
       </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="n">
+      <c r="A277" t="n">
         <v>275</v>
       </c>
       <c r="B277" t="n">
@@ -18179,9 +19552,14 @@
       <c r="T277" t="b">
         <v>1</v>
       </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="n">
+      <c r="A278" t="n">
         <v>276</v>
       </c>
       <c r="B278" t="n">
@@ -18243,9 +19621,14 @@
       <c r="T278" t="b">
         <v>0</v>
       </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="n">
+      <c r="A279" t="n">
         <v>277</v>
       </c>
       <c r="B279" t="n">
@@ -18307,9 +19690,14 @@
       <c r="T279" t="b">
         <v>0</v>
       </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="n">
+      <c r="A280" t="n">
         <v>278</v>
       </c>
       <c r="B280" t="n">
@@ -18371,9 +19759,14 @@
       <c r="T280" t="b">
         <v>0</v>
       </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="n">
+      <c r="A281" t="n">
         <v>279</v>
       </c>
       <c r="B281" t="n">
@@ -18435,9 +19828,14 @@
       <c r="T281" t="b">
         <v>0</v>
       </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="n">
+      <c r="A282" t="n">
         <v>280</v>
       </c>
       <c r="B282" t="n">
@@ -18499,9 +19897,14 @@
       <c r="T282" t="b">
         <v>0</v>
       </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="n">
+      <c r="A283" t="n">
         <v>281</v>
       </c>
       <c r="B283" t="n">
@@ -18563,9 +19966,14 @@
       <c r="T283" t="b">
         <v>1</v>
       </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="n">
+      <c r="A284" t="n">
         <v>282</v>
       </c>
       <c r="B284" t="n">
@@ -18627,9 +20035,14 @@
       <c r="T284" t="b">
         <v>1</v>
       </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="n">
+      <c r="A285" t="n">
         <v>283</v>
       </c>
       <c r="B285" t="n">
@@ -18691,9 +20104,14 @@
       <c r="T285" t="b">
         <v>0</v>
       </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="n">
+      <c r="A286" t="n">
         <v>284</v>
       </c>
       <c r="B286" t="n">
@@ -18755,9 +20173,14 @@
       <c r="T286" t="b">
         <v>0</v>
       </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="n">
+      <c r="A287" t="n">
         <v>285</v>
       </c>
       <c r="B287" t="n">
@@ -18819,9 +20242,14 @@
       <c r="T287" t="b">
         <v>0</v>
       </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="n">
+      <c r="A288" t="n">
         <v>286</v>
       </c>
       <c r="B288" t="n">
@@ -18883,9 +20311,14 @@
       <c r="T288" t="b">
         <v>0</v>
       </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="n">
+      <c r="A289" t="n">
         <v>287</v>
       </c>
       <c r="B289" t="n">
@@ -18947,9 +20380,14 @@
       <c r="T289" t="b">
         <v>0</v>
       </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="n">
+      <c r="A290" t="n">
         <v>288</v>
       </c>
       <c r="B290" t="n">
@@ -19011,9 +20449,14 @@
       <c r="T290" t="b">
         <v>1</v>
       </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="n">
+      <c r="A291" t="n">
         <v>289</v>
       </c>
       <c r="B291" t="n">
@@ -19075,9 +20518,14 @@
       <c r="T291" t="b">
         <v>1</v>
       </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="n">
+      <c r="A292" t="n">
         <v>290</v>
       </c>
       <c r="B292" t="n">
@@ -19139,9 +20587,14 @@
       <c r="T292" t="b">
         <v>0</v>
       </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="n">
+      <c r="A293" t="n">
         <v>291</v>
       </c>
       <c r="B293" t="n">
@@ -19203,9 +20656,14 @@
       <c r="T293" t="b">
         <v>0</v>
       </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="n">
+      <c r="A294" t="n">
         <v>292</v>
       </c>
       <c r="B294" t="n">
@@ -19267,9 +20725,14 @@
       <c r="T294" t="b">
         <v>0</v>
       </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="n">
+      <c r="A295" t="n">
         <v>293</v>
       </c>
       <c r="B295" t="n">
@@ -19331,9 +20794,14 @@
       <c r="T295" t="b">
         <v>0</v>
       </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="n">
+      <c r="A296" t="n">
         <v>294</v>
       </c>
       <c r="B296" t="n">
@@ -19395,9 +20863,14 @@
       <c r="T296" t="b">
         <v>0</v>
       </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="n">
+      <c r="A297" t="n">
         <v>295</v>
       </c>
       <c r="B297" t="n">
@@ -19459,9 +20932,14 @@
       <c r="T297" t="b">
         <v>1</v>
       </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="n">
+      <c r="A298" t="n">
         <v>296</v>
       </c>
       <c r="B298" t="n">
@@ -19523,9 +21001,14 @@
       <c r="T298" t="b">
         <v>1</v>
       </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="n">
+      <c r="A299" t="n">
         <v>297</v>
       </c>
       <c r="B299" t="n">
@@ -19587,9 +21070,14 @@
       <c r="T299" t="b">
         <v>0</v>
       </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="n">
+      <c r="A300" t="n">
         <v>298</v>
       </c>
       <c r="B300" t="n">
@@ -19651,9 +21139,14 @@
       <c r="T300" t="b">
         <v>0</v>
       </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="n">
+      <c r="A301" t="n">
         <v>299</v>
       </c>
       <c r="B301" t="n">
@@ -19715,9 +21208,14 @@
       <c r="T301" t="b">
         <v>0</v>
       </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="n">
+      <c r="A302" t="n">
         <v>300</v>
       </c>
       <c r="B302" t="n">
@@ -19779,9 +21277,14 @@
       <c r="T302" t="b">
         <v>0</v>
       </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="n">
+      <c r="A303" t="n">
         <v>301</v>
       </c>
       <c r="B303" t="n">
@@ -19843,9 +21346,14 @@
       <c r="T303" t="b">
         <v>0</v>
       </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="n">
+      <c r="A304" t="n">
         <v>302</v>
       </c>
       <c r="B304" t="n">
@@ -19907,9 +21415,14 @@
       <c r="T304" t="b">
         <v>1</v>
       </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="n">
+      <c r="A305" t="n">
         <v>303</v>
       </c>
       <c r="B305" t="n">
@@ -19971,9 +21484,14 @@
       <c r="T305" t="b">
         <v>1</v>
       </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="n">
+      <c r="A306" t="n">
         <v>304</v>
       </c>
       <c r="B306" t="n">
@@ -20035,9 +21553,14 @@
       <c r="T306" t="b">
         <v>0</v>
       </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="n">
+      <c r="A307" t="n">
         <v>305</v>
       </c>
       <c r="B307" t="n">
@@ -20099,9 +21622,14 @@
       <c r="T307" t="b">
         <v>0</v>
       </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="n">
+      <c r="A308" t="n">
         <v>306</v>
       </c>
       <c r="B308" t="n">
@@ -20163,9 +21691,14 @@
       <c r="T308" t="b">
         <v>0</v>
       </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="n">
+      <c r="A309" t="n">
         <v>307</v>
       </c>
       <c r="B309" t="n">
@@ -20227,9 +21760,14 @@
       <c r="T309" t="b">
         <v>0</v>
       </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="n">
+      <c r="A310" t="n">
         <v>308</v>
       </c>
       <c r="B310" t="n">
@@ -20291,9 +21829,14 @@
       <c r="T310" t="b">
         <v>0</v>
       </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="n">
+      <c r="A311" t="n">
         <v>309</v>
       </c>
       <c r="B311" t="n">
@@ -20355,9 +21898,14 @@
       <c r="T311" t="b">
         <v>1</v>
       </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="n">
+      <c r="A312" t="n">
         <v>310</v>
       </c>
       <c r="B312" t="n">
@@ -20419,9 +21967,14 @@
       <c r="T312" t="b">
         <v>1</v>
       </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="n">
+      <c r="A313" t="n">
         <v>311</v>
       </c>
       <c r="B313" t="n">
@@ -20483,9 +22036,14 @@
       <c r="T313" t="b">
         <v>0</v>
       </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="n">
+      <c r="A314" t="n">
         <v>312</v>
       </c>
       <c r="B314" t="n">
@@ -20547,9 +22105,14 @@
       <c r="T314" t="b">
         <v>0</v>
       </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="n">
+      <c r="A315" t="n">
         <v>313</v>
       </c>
       <c r="B315" t="n">
@@ -20611,9 +22174,14 @@
       <c r="T315" t="b">
         <v>0</v>
       </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="n">
+      <c r="A316" t="n">
         <v>314</v>
       </c>
       <c r="B316" t="n">
@@ -20675,9 +22243,14 @@
       <c r="T316" t="b">
         <v>0</v>
       </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="n">
+      <c r="A317" t="n">
         <v>315</v>
       </c>
       <c r="B317" t="n">
@@ -20739,9 +22312,14 @@
       <c r="T317" t="b">
         <v>0</v>
       </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="n">
+      <c r="A318" t="n">
         <v>316</v>
       </c>
       <c r="B318" t="n">
@@ -20803,9 +22381,14 @@
       <c r="T318" t="b">
         <v>1</v>
       </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="n">
+      <c r="A319" t="n">
         <v>317</v>
       </c>
       <c r="B319" t="n">
@@ -20867,9 +22450,14 @@
       <c r="T319" t="b">
         <v>1</v>
       </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="n">
+      <c r="A320" t="n">
         <v>318</v>
       </c>
       <c r="B320" t="n">
@@ -20931,9 +22519,14 @@
       <c r="T320" t="b">
         <v>0</v>
       </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="n">
+      <c r="A321" t="n">
         <v>319</v>
       </c>
       <c r="B321" t="n">
@@ -20995,9 +22588,14 @@
       <c r="T321" t="b">
         <v>0</v>
       </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="n">
+      <c r="A322" t="n">
         <v>320</v>
       </c>
       <c r="B322" t="n">
@@ -21059,9 +22657,14 @@
       <c r="T322" t="b">
         <v>0</v>
       </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="n">
+      <c r="A323" t="n">
         <v>321</v>
       </c>
       <c r="B323" t="n">
@@ -21123,9 +22726,14 @@
       <c r="T323" t="b">
         <v>0</v>
       </c>
+      <c r="U323" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="n">
+      <c r="A324" t="n">
         <v>322</v>
       </c>
       <c r="B324" t="n">
@@ -21187,9 +22795,14 @@
       <c r="T324" t="b">
         <v>0</v>
       </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="n">
+      <c r="A325" t="n">
         <v>323</v>
       </c>
       <c r="B325" t="n">
@@ -21245,9 +22858,10 @@
       <c r="T325" t="b">
         <v>1</v>
       </c>
+      <c r="U325" t="inlineStr"/>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="n">
+      <c r="A326" t="n">
         <v>324</v>
       </c>
       <c r="B326" t="n">
@@ -21309,9 +22923,14 @@
       <c r="T326" t="b">
         <v>1</v>
       </c>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="n">
+      <c r="A327" t="n">
         <v>325</v>
       </c>
       <c r="B327" t="n">
@@ -21373,9 +22992,14 @@
       <c r="T327" t="b">
         <v>0</v>
       </c>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="n">
+      <c r="A328" t="n">
         <v>326</v>
       </c>
       <c r="B328" t="n">
@@ -21437,9 +23061,14 @@
       <c r="T328" t="b">
         <v>0</v>
       </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="n">
+      <c r="A329" t="n">
         <v>327</v>
       </c>
       <c r="B329" t="n">
@@ -21501,9 +23130,14 @@
       <c r="T329" t="b">
         <v>0</v>
       </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="n">
+      <c r="A330" t="n">
         <v>328</v>
       </c>
       <c r="B330" t="n">
@@ -21565,9 +23199,14 @@
       <c r="T330" t="b">
         <v>0</v>
       </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="n">
+      <c r="A331" t="n">
         <v>329</v>
       </c>
       <c r="B331" t="n">
@@ -21629,9 +23268,14 @@
       <c r="T331" t="b">
         <v>0</v>
       </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="n">
+      <c r="A332" t="n">
         <v>330</v>
       </c>
       <c r="B332" t="n">
@@ -21693,9 +23337,14 @@
       <c r="T332" t="b">
         <v>1</v>
       </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="n">
+      <c r="A333" t="n">
         <v>331</v>
       </c>
       <c r="B333" t="n">
@@ -21757,9 +23406,14 @@
       <c r="T333" t="b">
         <v>1</v>
       </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="n">
+      <c r="A334" t="n">
         <v>332</v>
       </c>
       <c r="B334" t="n">
@@ -21821,9 +23475,14 @@
       <c r="T334" t="b">
         <v>0</v>
       </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="n">
+      <c r="A335" t="n">
         <v>333</v>
       </c>
       <c r="B335" t="n">
@@ -21885,9 +23544,14 @@
       <c r="T335" t="b">
         <v>0</v>
       </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="n">
+      <c r="A336" t="n">
         <v>334</v>
       </c>
       <c r="B336" t="n">
@@ -21949,9 +23613,14 @@
       <c r="T336" t="b">
         <v>0</v>
       </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="n">
+      <c r="A337" t="n">
         <v>335</v>
       </c>
       <c r="B337" t="n">
@@ -22013,9 +23682,14 @@
       <c r="T337" t="b">
         <v>0</v>
       </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="n">
+      <c r="A338" t="n">
         <v>336</v>
       </c>
       <c r="B338" t="n">
@@ -22077,9 +23751,14 @@
       <c r="T338" t="b">
         <v>0</v>
       </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="n">
+      <c r="A339" t="n">
         <v>337</v>
       </c>
       <c r="B339" t="n">
@@ -22141,9 +23820,14 @@
       <c r="T339" t="b">
         <v>1</v>
       </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="n">
+      <c r="A340" t="n">
         <v>338</v>
       </c>
       <c r="B340" t="n">
@@ -22199,9 +23883,10 @@
       <c r="T340" t="b">
         <v>1</v>
       </c>
+      <c r="U340" t="inlineStr"/>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="n">
+      <c r="A341" t="n">
         <v>339</v>
       </c>
       <c r="B341" t="n">
@@ -22263,9 +23948,14 @@
       <c r="T341" t="b">
         <v>0</v>
       </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>VB</t>
+        </is>
+      </c>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="n">
+      <c r="A342" t="n">
         <v>340</v>
       </c>
       <c r="B342" t="n">
@@ -22327,9 +24017,14 @@
       <c r="T342" t="b">
         <v>0</v>
       </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="n">
+      <c r="A343" t="n">
         <v>341</v>
       </c>
       <c r="B343" t="n">
@@ -22391,9 +24086,14 @@
       <c r="T343" t="b">
         <v>0</v>
       </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="n">
+      <c r="A344" t="n">
         <v>342</v>
       </c>
       <c r="B344" t="n">
@@ -22455,9 +24155,14 @@
       <c r="T344" t="b">
         <v>0</v>
       </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="n">
+      <c r="A345" t="n">
         <v>343</v>
       </c>
       <c r="B345" t="n">
@@ -22513,9 +24218,10 @@
       <c r="T345" t="b">
         <v>0</v>
       </c>
+      <c r="U345" t="inlineStr"/>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="n">
+      <c r="A346" t="n">
         <v>344</v>
       </c>
       <c r="B346" t="n">
@@ -22577,9 +24283,14 @@
       <c r="T346" t="b">
         <v>1</v>
       </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="n">
+      <c r="A347" t="n">
         <v>345</v>
       </c>
       <c r="B347" t="n">
@@ -22641,9 +24352,14 @@
       <c r="T347" t="b">
         <v>1</v>
       </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="n">
+      <c r="A348" t="n">
         <v>346</v>
       </c>
       <c r="B348" t="n">
@@ -22705,9 +24421,14 @@
       <c r="T348" t="b">
         <v>0</v>
       </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="n">
+      <c r="A349" t="n">
         <v>347</v>
       </c>
       <c r="B349" t="n">
@@ -22769,9 +24490,14 @@
       <c r="T349" t="b">
         <v>0</v>
       </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="n">
+      <c r="A350" t="n">
         <v>348</v>
       </c>
       <c r="B350" t="n">
@@ -22833,9 +24559,14 @@
       <c r="T350" t="b">
         <v>0</v>
       </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="n">
+      <c r="A351" t="n">
         <v>349</v>
       </c>
       <c r="B351" t="n">
@@ -22897,9 +24628,14 @@
       <c r="T351" t="b">
         <v>0</v>
       </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="n">
+      <c r="A352" t="n">
         <v>350</v>
       </c>
       <c r="B352" t="n">
@@ -22961,9 +24697,14 @@
       <c r="T352" t="b">
         <v>0</v>
       </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="n">
+      <c r="A353" t="n">
         <v>351</v>
       </c>
       <c r="B353" t="n">
@@ -23025,9 +24766,14 @@
       <c r="T353" t="b">
         <v>1</v>
       </c>
+      <c r="U353" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="n">
+      <c r="A354" t="n">
         <v>352</v>
       </c>
       <c r="B354" t="n">
@@ -23089,9 +24835,14 @@
       <c r="T354" t="b">
         <v>1</v>
       </c>
+      <c r="U354" t="inlineStr">
+        <is>
+          <t>JJ</t>
+        </is>
+      </c>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="n">
+      <c r="A355" t="n">
         <v>353</v>
       </c>
       <c r="B355" t="n">
@@ -23153,9 +24904,14 @@
       <c r="T355" t="b">
         <v>0</v>
       </c>
+      <c r="U355" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="n">
+      <c r="A356" t="n">
         <v>354</v>
       </c>
       <c r="B356" t="n">
@@ -23217,9 +24973,14 @@
       <c r="T356" t="b">
         <v>0</v>
       </c>
+      <c r="U356" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="n">
+      <c r="A357" t="n">
         <v>355</v>
       </c>
       <c r="B357" t="n">
@@ -23281,9 +25042,14 @@
       <c r="T357" t="b">
         <v>0</v>
       </c>
+      <c r="U357" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="n">
+      <c r="A358" t="n">
         <v>356</v>
       </c>
       <c r="B358" t="n">
@@ -23345,9 +25111,14 @@
       <c r="T358" t="b">
         <v>0</v>
       </c>
+      <c r="U358" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="n">
+      <c r="A359" t="n">
         <v>357</v>
       </c>
       <c r="B359" t="n">
@@ -23409,9 +25180,14 @@
       <c r="T359" t="b">
         <v>0</v>
       </c>
+      <c r="U359" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="n">
+      <c r="A360" t="n">
         <v>358</v>
       </c>
       <c r="B360" t="n">
@@ -23472,6 +25248,11 @@
       </c>
       <c r="T360" t="b">
         <v>1</v>
+      </c>
+      <c r="U360" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
       </c>
     </row>
   </sheetData>
